--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Sfrp1-Fzd6.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Sfrp1-Fzd6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
   </si>
   <si>
     <t>Sfrp1</t>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,10 +522,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -534,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.015829666666666</v>
+        <v>3.295960333333333</v>
       </c>
       <c r="H2">
-        <v>9.047488999999999</v>
+        <v>9.887881</v>
       </c>
       <c r="I2">
-        <v>0.02149774561142443</v>
+        <v>0.02344673072001071</v>
       </c>
       <c r="J2">
-        <v>0.02149774561142444</v>
+        <v>0.02344673072001072</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>20.545366</v>
+        <v>22.618885</v>
       </c>
       <c r="N2">
-        <v>61.636098</v>
+        <v>67.856655</v>
       </c>
       <c r="O2">
-        <v>0.8965950288338865</v>
+        <v>0.9027998993061069</v>
       </c>
       <c r="P2">
-        <v>0.8965950288338865</v>
+        <v>0.902799899306107</v>
       </c>
       <c r="Q2">
-        <v>61.96132429532467</v>
+        <v>74.55094774422834</v>
       </c>
       <c r="R2">
-        <v>557.651918657922</v>
+        <v>670.958529698055</v>
       </c>
       <c r="S2">
-        <v>0.01927477184633865</v>
+        <v>0.02116770613308308</v>
       </c>
       <c r="T2">
-        <v>0.01927477184633865</v>
+        <v>0.02116770613308308</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,10 +584,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -596,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.015829666666666</v>
+        <v>3.295960333333333</v>
       </c>
       <c r="H3">
-        <v>9.047488999999999</v>
+        <v>9.887881</v>
       </c>
       <c r="I3">
-        <v>0.02149774561142443</v>
+        <v>0.02344673072001071</v>
       </c>
       <c r="J3">
-        <v>0.02149774561142444</v>
+        <v>0.02344673072001072</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +623,22 @@
         <v>6.464219</v>
       </c>
       <c r="O3">
-        <v>0.09403234157836461</v>
+        <v>0.08600330007856447</v>
       </c>
       <c r="P3">
-        <v>0.09403234157836463</v>
+        <v>0.08600330007856449</v>
       </c>
       <c r="Q3">
-        <v>6.498327810676777</v>
+        <v>7.101936469993221</v>
       </c>
       <c r="R3">
-        <v>58.48495029609099</v>
+        <v>63.917428229939</v>
       </c>
       <c r="S3">
-        <v>0.002021483358498251</v>
+        <v>0.002016496217974377</v>
       </c>
       <c r="T3">
-        <v>0.002021483358498252</v>
+        <v>0.002016496217974378</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,10 +646,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -658,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.015829666666666</v>
+        <v>3.295960333333333</v>
       </c>
       <c r="H4">
-        <v>9.047488999999999</v>
+        <v>9.887881</v>
       </c>
       <c r="I4">
-        <v>0.02149774561142443</v>
+        <v>0.02344673072001071</v>
       </c>
       <c r="J4">
-        <v>0.02149774561142444</v>
+        <v>0.02344673072001072</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.2147726666666666</v>
+        <v>0.2805263333333333</v>
       </c>
       <c r="N4">
-        <v>0.6443179999999999</v>
+        <v>0.841579</v>
       </c>
       <c r="O4">
-        <v>0.009372629587748919</v>
+        <v>0.0111968006153285</v>
       </c>
       <c r="P4">
-        <v>0.009372629587748919</v>
+        <v>0.01119680061532851</v>
       </c>
       <c r="Q4">
-        <v>0.6477177797224443</v>
+        <v>0.9246036671221111</v>
       </c>
       <c r="R4">
-        <v>5.829460017501999</v>
+        <v>8.321433004098999</v>
       </c>
       <c r="S4">
-        <v>0.0002014904065875361</v>
+        <v>0.0002625283689532577</v>
       </c>
       <c r="T4">
-        <v>0.0002014904065875362</v>
+        <v>0.0002625283689532578</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,10 +708,10 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>20</v>
@@ -726,10 +729,10 @@
         <v>410.8779520000001</v>
       </c>
       <c r="I5">
-        <v>0.976287419574543</v>
+        <v>0.9742982039663998</v>
       </c>
       <c r="J5">
-        <v>0.976287419574543</v>
+        <v>0.9742982039663999</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>20.545366</v>
+        <v>22.618885</v>
       </c>
       <c r="N5">
-        <v>61.636098</v>
+        <v>67.856655</v>
       </c>
       <c r="O5">
-        <v>0.8965950288338865</v>
+        <v>0.9027998993061069</v>
       </c>
       <c r="P5">
-        <v>0.8965950288338865</v>
+        <v>0.902799899306107</v>
       </c>
       <c r="Q5">
-        <v>2813.879301723478</v>
+        <v>3097.867048441174</v>
       </c>
       <c r="R5">
-        <v>25324.9137155113</v>
+        <v>27880.80343597056</v>
       </c>
       <c r="S5">
-        <v>0.8753344471035981</v>
+        <v>0.8795963204349866</v>
       </c>
       <c r="T5">
-        <v>0.8753344471035981</v>
+        <v>0.8795963204349867</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,10 +770,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
@@ -788,10 +791,10 @@
         <v>410.8779520000001</v>
       </c>
       <c r="I6">
-        <v>0.976287419574543</v>
+        <v>0.9742982039663998</v>
       </c>
       <c r="J6">
-        <v>0.976287419574543</v>
+        <v>0.9742982039663999</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +809,10 @@
         <v>6.464219</v>
       </c>
       <c r="O6">
-        <v>0.09403234157836461</v>
+        <v>0.08600330007856447</v>
       </c>
       <c r="P6">
-        <v>0.09403234157836463</v>
+        <v>0.08600330007856449</v>
       </c>
       <c r="Q6">
         <v>295.1116737777209</v>
@@ -818,10 +821,10 @@
         <v>2656.005063999488</v>
       </c>
       <c r="S6">
-        <v>0.0918025921160936</v>
+        <v>0.08379286080172868</v>
       </c>
       <c r="T6">
-        <v>0.09180259211609361</v>
+        <v>0.08379286080172872</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,10 +832,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>22</v>
@@ -850,10 +853,10 @@
         <v>410.8779520000001</v>
       </c>
       <c r="I7">
-        <v>0.976287419574543</v>
+        <v>0.9742982039663998</v>
       </c>
       <c r="J7">
-        <v>0.976287419574543</v>
+        <v>0.9742982039663999</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.2147726666666666</v>
+        <v>0.2805263333333333</v>
       </c>
       <c r="N7">
-        <v>0.6443179999999999</v>
+        <v>0.841579</v>
       </c>
       <c r="O7">
-        <v>0.009372629587748919</v>
+        <v>0.0111968006153285</v>
       </c>
       <c r="P7">
-        <v>0.009372629587748919</v>
+        <v>0.01119680061532851</v>
       </c>
       <c r="Q7">
-        <v>29.41511780852622</v>
+        <v>38.42069510735645</v>
       </c>
       <c r="R7">
-        <v>264.736060276736</v>
+        <v>345.786255966208</v>
       </c>
       <c r="S7">
-        <v>0.009150380354851405</v>
+        <v>0.01090902272968444</v>
       </c>
       <c r="T7">
-        <v>0.009150380354851405</v>
+        <v>0.01090902272968445</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -891,10 +894,10 @@
         <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -906,16 +909,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.31071</v>
+        <v>0.1784693333333333</v>
       </c>
       <c r="H8">
-        <v>0.9321299999999999</v>
+        <v>0.535408</v>
       </c>
       <c r="I8">
-        <v>0.002214834814032607</v>
+        <v>0.001269591250272884</v>
       </c>
       <c r="J8">
-        <v>0.002214834814032608</v>
+        <v>0.001269591250272884</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>20.545366</v>
+        <v>22.618885</v>
       </c>
       <c r="N8">
-        <v>61.636098</v>
+        <v>67.856655</v>
       </c>
       <c r="O8">
-        <v>0.8965950288338865</v>
+        <v>0.9027998993061069</v>
       </c>
       <c r="P8">
-        <v>0.8965950288338865</v>
+        <v>0.902799899306107</v>
       </c>
       <c r="Q8">
-        <v>6.38365066986</v>
+        <v>4.036777326693334</v>
       </c>
       <c r="R8">
-        <v>57.45285602874</v>
+        <v>36.33099594024</v>
       </c>
       <c r="S8">
-        <v>0.001985809883949861</v>
+        <v>0.001146186852906274</v>
       </c>
       <c r="T8">
-        <v>0.001985809883949861</v>
+        <v>0.001146186852906274</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -953,10 +956,10 @@
         <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -968,16 +971,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.31071</v>
+        <v>0.1784693333333333</v>
       </c>
       <c r="H9">
-        <v>0.9321299999999999</v>
+        <v>0.535408</v>
       </c>
       <c r="I9">
-        <v>0.002214834814032607</v>
+        <v>0.001269591250272884</v>
       </c>
       <c r="J9">
-        <v>0.002214834814032608</v>
+        <v>0.001269591250272884</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +995,22 @@
         <v>6.464219</v>
       </c>
       <c r="O9">
-        <v>0.09403234157836461</v>
+        <v>0.08600330007856447</v>
       </c>
       <c r="P9">
-        <v>0.09403234157836463</v>
+        <v>0.08600330007856449</v>
       </c>
       <c r="Q9">
-        <v>0.6694991618299999</v>
+        <v>0.3845549518168889</v>
       </c>
       <c r="R9">
-        <v>6.025492456469999</v>
+        <v>3.460994566352</v>
       </c>
       <c r="S9">
-        <v>0.0002082661037727678</v>
+        <v>0.0001091890372743387</v>
       </c>
       <c r="T9">
-        <v>0.0002082661037727678</v>
+        <v>0.0001091890372743387</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1015,10 +1018,10 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
@@ -1030,16 +1033,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.31071</v>
+        <v>0.1784693333333333</v>
       </c>
       <c r="H10">
-        <v>0.9321299999999999</v>
+        <v>0.535408</v>
       </c>
       <c r="I10">
-        <v>0.002214834814032607</v>
+        <v>0.001269591250272884</v>
       </c>
       <c r="J10">
-        <v>0.002214834814032608</v>
+        <v>0.001269591250272884</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1051,214 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.2147726666666666</v>
+        <v>0.2805263333333333</v>
       </c>
       <c r="N10">
-        <v>0.6443179999999999</v>
+        <v>0.841579</v>
       </c>
       <c r="O10">
-        <v>0.009372629587748919</v>
+        <v>0.0111968006153285</v>
       </c>
       <c r="P10">
-        <v>0.009372629587748919</v>
+        <v>0.01119680061532851</v>
       </c>
       <c r="Q10">
-        <v>0.06673201525999999</v>
+        <v>0.05006534769244445</v>
       </c>
       <c r="R10">
-        <v>0.6005881373399999</v>
+        <v>0.450588129232</v>
       </c>
       <c r="S10">
-        <v>2.075882630997839E-05</v>
+        <v>1.421536009227112E-05</v>
       </c>
       <c r="T10">
-        <v>2.075882630997839E-05</v>
+        <v>1.421536009227112E-05</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.1385303333333333</v>
+      </c>
+      <c r="H11">
+        <v>0.415591</v>
+      </c>
+      <c r="I11">
+        <v>0.0009854740633164956</v>
+      </c>
+      <c r="J11">
+        <v>0.0009854740633164956</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>22.618885</v>
+      </c>
+      <c r="N11">
+        <v>67.856655</v>
+      </c>
+      <c r="O11">
+        <v>0.9027998993061069</v>
+      </c>
+      <c r="P11">
+        <v>0.902799899306107</v>
+      </c>
+      <c r="Q11">
+        <v>3.133401678678334</v>
+      </c>
+      <c r="R11">
+        <v>28.200615108105</v>
+      </c>
+      <c r="S11">
+        <v>0.0008896858851309122</v>
+      </c>
+      <c r="T11">
+        <v>0.0008896858851309123</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.1385303333333333</v>
+      </c>
+      <c r="H12">
+        <v>0.415591</v>
+      </c>
+      <c r="I12">
+        <v>0.0009854740633164956</v>
+      </c>
+      <c r="J12">
+        <v>0.0009854740633164956</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>2.154739666666666</v>
+      </c>
+      <c r="N12">
+        <v>6.464219</v>
+      </c>
+      <c r="O12">
+        <v>0.08600330007856447</v>
+      </c>
+      <c r="P12">
+        <v>0.08600330007856449</v>
+      </c>
+      <c r="Q12">
+        <v>0.2984968042698889</v>
+      </c>
+      <c r="R12">
+        <v>2.686471238429</v>
+      </c>
+      <c r="S12">
+        <v>8.47540215870508E-05</v>
+      </c>
+      <c r="T12">
+        <v>8.475402158705083E-05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.1385303333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.415591</v>
+      </c>
+      <c r="I13">
+        <v>0.0009854740633164956</v>
+      </c>
+      <c r="J13">
+        <v>0.0009854740633164956</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.2805263333333333</v>
+      </c>
+      <c r="N13">
+        <v>0.841579</v>
+      </c>
+      <c r="O13">
+        <v>0.0111968006153285</v>
+      </c>
+      <c r="P13">
+        <v>0.01119680061532851</v>
+      </c>
+      <c r="Q13">
+        <v>0.03886140646544444</v>
+      </c>
+      <c r="R13">
+        <v>0.349752658189</v>
+      </c>
+      <c r="S13">
+        <v>1.103415659853242E-05</v>
+      </c>
+      <c r="T13">
+        <v>1.103415659853242E-05</v>
       </c>
     </row>
   </sheetData>
